--- a/biology/Botanique/Crémant-du-jura/Crémant-du-jura.xlsx
+++ b/biology/Botanique/Crémant-du-jura/Crémant-du-jura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant-du-jura</t>
+          <t>Crémant-du-jura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le crémant du Jura est un mousseux d'appellation d'origine contrôlée produit dans le vignoble du Jura, issu des cépages poulsard, pinot noir, trousseau, chardonnay et savagnin.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant-du-jura</t>
+          <t>Crémant-du-jura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cahier des charges a respecter a fait l'objet d'un décret d'homologation le 22 septembre 2011[3]. Ce texte est abrogé par un arrêté du 21 octobre 2019 qui  homologue un nouveau cahier des charges[4].
-Étymologie</t>
+Le cahier des charges a respecter a fait l'objet d'un décret d'homologation le 22 septembre 2011. Ce texte est abrogé par un arrêté du 21 octobre 2019 qui  homologue un nouveau cahier des charges.</t>
         </is>
       </c>
     </row>
@@ -527,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant-du-jura</t>
+          <t>Crémant-du-jura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +558,9 @@
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crémant du Jura a une aire délimitée propre depuis 2009. Toutes les parcelles AOC sont aptes à l'élaboration de cet effervescent local. 
 La géologie, l'orographie et la climatologie de cette appellation sont intégrées à la page vignoble du jura.
@@ -559,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant-du-jura</t>
+          <t>Crémant-du-jura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-Aire d'appellation
-Abergement-le-Grand, Abergement-le-Petit, Aiglepierre, Arbois, Arlay, Les Arsures, L'Aubépin, Augea, Aumont, Balanod, Baume-les-Messieurs, Beaufort, Bersaillin, Blois-sur-Seille, Brainans, Bréry, Buvilly, Césancey, Champagne-sur-Loue, La Chapelle-sur-Furieuse, Château-Chalon, Chazelles, Chevreaux, Chille, Chilly-le-Vignoble, Conliège, Courbouzon, Cousance, Cramans, Cuisia, Darbonnay, Digna, Domblans, L'Etoile, Frébuans, Frontenay, Gevingey, Gizia, Grange-de-Vaivre, Grozon, Grusse, Ladoye-sur-Seille, Lavigny, Lons-le-Saunier, Le Louverot, Macornay, Mantry, Marnoz, Mathenay, Maynal, Menétru-le-Vignoble, Mesnay, Messia-sur-Sorne, Miéry, Moiron, Molamboz, Monay, Montagna-le-Reconduit, Montaigu, Montain, Montholier, Montigny-lès-Arsures, Montmorot, Mouchard, Nanc-lès-Saint-Amour, Nevy-sur-Seille, Orbagna, Pagnoz, Pannessières, Passenans, Perrigny, Le Pin, Plainoiseau, Les Planches-près-Arbois, Poligny, Port-Lesney, Pretin, Pupillin, Quintigny, Revigny, Rotalier, Ruffey-sur-Seille, Saint-Amour, Saint-Cyr-Montmalin, Saint-Didier, Saint-Germain-lès-Arlay, Saint-Jean-d'Etreux, Saint-Lamain, Saint-Laurent-la-Roche, Saint-Lothain, Sainte-Agnès, Salins-les-Bains, Sellières, Toulouse-le-Château, Tourmont, Trenal, Vadans, Vaux-sur-Poligny, Vercia, Vernantois, Le Vernois, Villeneuve-sous-Pymont, Villette-lès-Arbois, Vincelles, Voiteur.
-Encépagement
-Cépages poulsard, pinot noir, trousseau, chardonnay et savagnin.
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abergement-le-Grand, Abergement-le-Petit, Aiglepierre, Arbois, Arlay, Les Arsures, L'Aubépin, Augea, Aumont, Balanod, Baume-les-Messieurs, Beaufort, Bersaillin, Blois-sur-Seille, Brainans, Bréry, Buvilly, Césancey, Champagne-sur-Loue, La Chapelle-sur-Furieuse, Château-Chalon, Chazelles, Chevreaux, Chille, Chilly-le-Vignoble, Conliège, Courbouzon, Cousance, Cramans, Cuisia, Darbonnay, Digna, Domblans, L'Etoile, Frébuans, Frontenay, Gevingey, Gizia, Grange-de-Vaivre, Grozon, Grusse, Ladoye-sur-Seille, Lavigny, Lons-le-Saunier, Le Louverot, Macornay, Mantry, Marnoz, Mathenay, Maynal, Menétru-le-Vignoble, Mesnay, Messia-sur-Sorne, Miéry, Moiron, Molamboz, Monay, Montagna-le-Reconduit, Montaigu, Montain, Montholier, Montigny-lès-Arsures, Montmorot, Mouchard, Nanc-lès-Saint-Amour, Nevy-sur-Seille, Orbagna, Pagnoz, Pannessières, Passenans, Perrigny, Le Pin, Plainoiseau, Les Planches-près-Arbois, Poligny, Port-Lesney, Pretin, Pupillin, Quintigny, Revigny, Rotalier, Ruffey-sur-Seille, Saint-Amour, Saint-Cyr-Montmalin, Saint-Didier, Saint-Germain-lès-Arlay, Saint-Jean-d'Etreux, Saint-Lamain, Saint-Laurent-la-Roche, Saint-Lothain, Sainte-Agnès, Salins-les-Bains, Sellières, Toulouse-le-Château, Tourmont, Trenal, Vadans, Vaux-sur-Poligny, Vercia, Vernantois, Le Vernois, Villeneuve-sous-Pymont, Villette-lès-Arbois, Vincelles, Voiteur.
 </t>
         </is>
       </c>
@@ -594,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant-du-jura</t>
+          <t>Crémant-du-jura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +626,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fabrication</t>
+          <t>Vignoble</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La vinification des crémants relève d’un processus complexe et demande un véritable savoir-faire. En effet après la fermentation traditionnelle en cuve (ou en tonneau), elle consiste à effectuer une seconde fermentation. Pour ce faire, les vignerons rajoutent au vin blanc tranquille (de base) du sucre et des levures. Cette fermentation, qui s’effectue en bouteille, produit du dioxyde de carbone. Celui-ci, emprisonné, rend le vin mousseux (d’où le nom de l’étape : « prise de mousse »). Parallèlement, le sucre disparaît pour former l’alcool. Après une période de vieillissement sur lattes actuellement fixé à 9 mois (il est prévu de passer à 12 mois), les bouteilles sont tournées sur leur pointe afin que le dépôt se dépose dans le col en attendant l'heure du dégorgement. Le dépôt est alors évacué par refroidissement avant de poser le bouchon et le muselet.
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cépages poulsard, pinot noir, trousseau, chardonnay et savagnin.
 </t>
         </is>
       </c>
@@ -625,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cr%C3%A9mant-du-jura</t>
+          <t>Crémant-du-jura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,10 +663,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vinification des crémants relève d’un processus complexe et demande un véritable savoir-faire. En effet après la fermentation traditionnelle en cuve (ou en tonneau), elle consiste à effectuer une seconde fermentation. Pour ce faire, les vignerons rajoutent au vin blanc tranquille (de base) du sucre et des levures. Cette fermentation, qui s’effectue en bouteille, produit du dioxyde de carbone. Celui-ci, emprisonné, rend le vin mousseux (d’où le nom de l’étape : « prise de mousse »). Parallèlement, le sucre disparaît pour former l’alcool. Après une période de vieillissement sur lattes actuellement fixé à 9 mois (il est prévu de passer à 12 mois), les bouteilles sont tournées sur leur pointe afin que le dépôt se dépose dans le col en attendant l'heure du dégorgement. Le dépôt est alors évacué par refroidissement avant de poser le bouchon et le muselet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crémant-du-jura</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%A9mant-du-jura</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le crémant du Jura doit être servi dans des flûtes entre 5 et 7 °C. Il constitue un apéritif pour les cocktails, les réceptions, les fêtes ou tout au long d'un repas. Il accompagne les plats aux fruits de mer ou le fromage.
 </t>
